--- a/medicine/Psychotrope/Zundert_(bière)/Zundert_(bière).xlsx
+++ b/medicine/Psychotrope/Zundert_(bière)/Zundert_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zundert_(bi%C3%A8re)</t>
+          <t>Zundert_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Zundert est une bière trappiste, brassée par la brasserie De Kievit au sein de l'abbaye Notre-Dame-du-Refuge de Zundert, dans le Sud des Pays-Bas non loin de la frontière belge. 
-Il s'agit de l'une des onze[1] bières trappistes labellisées commercialisées dans le monde et l'une des deux bières trappistes néerlandaises avec la Trappe.
+Il s'agit de l'une des onze bières trappistes labellisées commercialisées dans le monde et l'une des deux bières trappistes néerlandaises avec la Trappe.
 Elle n'est brassée que par 2 moines de l'abbaye et un maître brasseur.
-Le 10 décembre 2013, elle a reçu l'autorisation de porter le logo Authentic trappist product[1].
+Le 10 décembre 2013, elle a reçu l'autorisation de porter le logo Authentic trappist product.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zundert_(bi%C3%A8re)</t>
+          <t>Zundert_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Zundert 8 une bière ambrée avec une teneur en alcool de 8 %.
 Depuis 2018, la Zundert 10 est produite. Il s'agit d'une bière brune quadruple avec une teneur en alcool de 10 %.
